--- a/MODULO 1/Procedimiento_excel_tasmania.xlsx
+++ b/MODULO 1/Procedimiento_excel_tasmania.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\TRABAJO\UNI\6TO SEMESTRE\SERIES\SERIES_DE_TIEMPO\MODULO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB472171-4C17-48B5-B615-3DA422CEFDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6BFDC-6702-48DC-ADD9-A5F434525394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{33917992-9C43-4574-B945-21537F6D2B4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{33917992-9C43-4574-B945-21537F6D2B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos originales" sheetId="1" r:id="rId1"/>
@@ -19362,8 +19362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8536927A-20FB-40FA-8818-B52D124F8E14}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29885,7 +29885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB01F8B-64AF-45A5-B4AF-58587EB335CD}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
